--- a/data/trans_dic/P78C7_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P78C7_2023-Estudios-trans_dic.xlsx
@@ -606,7 +606,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>63,24%</t>
+          <t>60,17%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>77,05%</t>
+          <t>74,79%</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,79; 100,0</t>
+          <t>18,32; 100,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37,02; 100,0</t>
+          <t>34,02; 100,0</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>75,35%</t>
+          <t>73,13%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>84,15%</t>
+          <t>82,54%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,02; 100,0</t>
+          <t>38,49; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>54,62; 100,0</t>
+          <t>52,84; 100,0</t>
         </is>
       </c>
     </row>
